--- a/static/download/bk_nodeman_info_en.xlsx
+++ b/static/download/bk_nodeman_info_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\bk_nodeman\static\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979855A-116B-4D77-AD2F-3218CEB7825D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28643B-DF9B-43A6-B2BE-A9F1B8EDEF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -131,6 +131,17 @@
   </si>
   <si>
     <t>General</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,150 +527,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="23.375" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
         <v>445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>66666</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <v>8080</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8888888888</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -667,7 +692,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B2 F2:G2 D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B2 G2:H2 E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/download/bk_nodeman_info_en.xlsx
+++ b/static/download/bk_nodeman_info_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\bk_nodeman\static\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979855A-116B-4D77-AD2F-3218CEB7825D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604349E9-32A4-44CD-850C-147B75030CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3900" yWindow="3255" windowWidth="25350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -122,15 +122,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed ​​limit(Optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Verification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>General</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Speed ​​limit M/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +172,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -174,8 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,150 +548,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
-    <col min="12" max="12" width="23.375" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
-        <v>26</v>
+      <c r="N1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>66666</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
         <v>8080</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8888888888</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -667,7 +713,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B2 F2:G2 D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B2 G2:H2 E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/download/bk_nodeman_info_en.xlsx
+++ b/static/download/bk_nodeman_info_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604349E9-32A4-44CD-850C-147B75030CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F6389-F4A8-480D-B029-E4B809A4F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3900" yWindow="3255" windowWidth="25350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="28320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -142,7 +142,17 @@
   </si>
   <si>
     <r>
-      <t>Speed ​​limit M/s</t>
+      <t xml:space="preserve">Speed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​​</t>
     </r>
     <r>
       <rPr>
@@ -153,8 +163,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Optional)</t>
+      <t>limit M/s(Optional)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressing mode(Optional)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +206,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -548,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -569,9 +598,10 @@
     <col min="12" max="12" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="23.375" customWidth="1"/>
     <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -614,8 +644,11 @@
       <c r="N1" t="s">
         <v>31</v>
       </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -649,8 +682,11 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -678,8 +714,11 @@
       <c r="N3">
         <v>3</v>
       </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>

--- a/static/download/bk_nodeman_info_en.xlsx
+++ b/static/download/bk_nodeman_info_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PaaS\git_nodeman\static\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F6389-F4A8-480D-B029-E4B809A4F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB999C5C-C604-4F7F-B609-0E41C2787233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="28320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1275" windowWidth="28320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -165,18 +165,6 @@
       </rPr>
       <t>limit M/s(Optional)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressing mode(Optional)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -601,7 +589,7 @@
     <col min="15" max="15" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -644,11 +632,8 @@
       <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -682,11 +667,8 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -714,11 +696,8 @@
       <c r="N3">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
